--- a/docs/1.Envisioning/other/Аналіз проектних ризиків.xlsx
+++ b/docs/1.Envisioning/other/Аналіз проектних ризиків.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Documents\Practice-2023\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Таїсія\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4878E1C5-C3F6-49B0-82DE-E2F02253FEE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D49FBFBA-4673-472B-95AC-D6C364E28380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ризики" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
   <si>
     <t>#</t>
   </si>
@@ -67,33 +66,162 @@
     <t>Відповідальний</t>
   </si>
   <si>
-    <t>Vlad Kyshynets</t>
-  </si>
-  <si>
-    <t>Костя Орлеан</t>
-  </si>
-  <si>
-    <t>Ангеліна Бабич</t>
-  </si>
-  <si>
-    <t>Евгений Шабля</t>
-  </si>
-  <si>
-    <t>Илья Рыжий</t>
-  </si>
-  <si>
-    <t>Вадим Алдик</t>
-  </si>
-  <si>
     <t>УВАГА! 
 Перш ніж заповнювати цю таблицю замініть прізвища на листі "Люди" аби мати змогу обирати їх у графі "Відповідальний"!</t>
+  </si>
+  <si>
+    <t>Нікіта Комельков</t>
+  </si>
+  <si>
+    <t>Сергій Жеревчук</t>
+  </si>
+  <si>
+    <t>Леонід Головненко</t>
+  </si>
+  <si>
+    <t>Таїсія Деркач</t>
+  </si>
+  <si>
+    <t>Тетяна Девяніна</t>
+  </si>
+  <si>
+    <t>Павло Луговий</t>
+  </si>
+  <si>
+    <t>Іван Кіндінов</t>
+  </si>
+  <si>
+    <t>Іван Кражан</t>
+  </si>
+  <si>
+    <t>Артем Ліфтієв</t>
+  </si>
+  <si>
+    <t>Анна Кравченко</t>
+  </si>
+  <si>
+    <t>Максим Кузьменко</t>
+  </si>
+  <si>
+    <t>Команда може переглянути свої стратегії розвитку, що може включати зміни в методах роботи, організаційні зміни та інші аспекти, що впливають на внутрішні процеси.</t>
+  </si>
+  <si>
+    <t>Збільшаться витрати часу на розробку продукту</t>
+  </si>
+  <si>
+    <t>Непорозуміння всередені команди, відсутність спільного бачення результату</t>
+  </si>
+  <si>
+    <t>Порушення робітничого процессу, затримки в виконанні певних задач</t>
+  </si>
+  <si>
+    <t>Проблеми з боку тестувальників, некомпетентність тестувальників</t>
+  </si>
+  <si>
+    <t>Проблеми з сайтом розташування гри</t>
+  </si>
+  <si>
+    <t>Неможиливість користувачів користуватися продуктом</t>
+  </si>
+  <si>
+    <t>Технічні проблеми з інтеграцією</t>
+  </si>
+  <si>
+    <t>Несумісність з іншими системами</t>
+  </si>
+  <si>
+    <t>Технічні проблеми з ігровим двигуном</t>
+  </si>
+  <si>
+    <t>Недостатня досвідченність розробників, проблеми з боку авторів ПО</t>
+  </si>
+  <si>
+    <t>Недостача фінансування</t>
+  </si>
+  <si>
+    <t>Затримки в розробці проекту</t>
+  </si>
+  <si>
+    <t>Погіршення функціональності</t>
+  </si>
+  <si>
+    <t>Є ризик збільшення витрат часу на розробку продукту. Необхідно уважно відстежувати процеси та розглядати альтернативні шляхи оптимізації.</t>
+  </si>
+  <si>
+    <t>Прийняття заходів для оптимізації робочих процесів та стратегій розробки.</t>
+  </si>
+  <si>
+    <t>Перевищення витрат часу на розробку продукту</t>
+  </si>
+  <si>
+    <t>Наявність непорозумінь у команді може призвести до порушення робочого процесу та затримок у виконанні завдань. Необхідно підтримувати відкритий діалог та розробляти спільне бачення результату.</t>
+  </si>
+  <si>
+    <t>Вирішення конфліктів та встановлення чітких комунікаційних каналів.</t>
+  </si>
+  <si>
+    <t>Порушення робочого процесу або затримки у виконанні завдань.</t>
+  </si>
+  <si>
+    <t>Незадовільна компетентність тестувальників може призвести до збільшення витрат часу на розробку продукту. Необхідно провести додатковий навчальний процес або залучити більш досвідчених спеціалістів.</t>
+  </si>
+  <si>
+    <t>Підвищення кваліфікації тестувального персоналу або залучення додаткових ресурсів.</t>
+  </si>
+  <si>
+    <t>Збільшення витрат часу на розробку продукту</t>
+  </si>
+  <si>
+    <t>Проблеми з сайтом розташування гри мають низьку ймовірність виникнення, але велику важливість. Потрібно бути готовими до негайного реагування у випадку виявлення.</t>
+  </si>
+  <si>
+    <t>Негайне усунення проблеми та відновлення функціональності.</t>
+  </si>
+  <si>
+    <t>Виявлення проблеми з сайтом розташування гри.</t>
+  </si>
+  <si>
+    <t>Технічні проблеми з інтеграцією можуть виникнути через несумісність з іншими системами. Важливо мати план відповіді для швидкого вирішення таких ситуацій.</t>
+  </si>
+  <si>
+    <t>Перевірка та виправлення несумісностей для забезпечення безперервності роботи.</t>
+  </si>
+  <si>
+    <t>Перешкоди в інтеграції з іншими системами.</t>
+  </si>
+  <si>
+    <t>Недостатня досвідченність розробників та проблеми з боку авторів ПО можуть призвести до недоліків у роботі ігрового двигуна. Необхідно планувати для забезпечення додаткової підготовки або підтримки.</t>
+  </si>
+  <si>
+    <t>Проведення додаткових навчальних заходів або залучення досвідчених консультантів.</t>
+  </si>
+  <si>
+    <t>Погіршення продуктивності або недоліки у роботі ігрового двигуна.</t>
+  </si>
+  <si>
+    <t>Недостача фінансування може призвести до затримок у розробці проекту. Важливо мати плани реагування для забезпечення продовження роботи.</t>
+  </si>
+  <si>
+    <t>Збільшення фінансування або зменшення витрат.</t>
+  </si>
+  <si>
+    <t>Затримки у розробці проекту через недостачу фінансування.</t>
+  </si>
+  <si>
+    <t>Несумісність з іншими системами може призвести до погіршення функціональності. Важливо мати плани відповіді для швидкого вирішення таких проблем.</t>
+  </si>
+  <si>
+    <t>Аналіз та виправлення несумісностей для забезпечення безперервності роботи.</t>
+  </si>
+  <si>
+    <t>Погіршення функціональності через несумісність з іншими системами.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -118,17 +246,27 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -158,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -168,10 +306,22 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -390,28 +540,28 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
-    <col min="7" max="7" width="21.28515625" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" customWidth="1"/>
-    <col min="10" max="10" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" customWidth="1"/>
+    <col min="10" max="10" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -439,429 +589,401 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+    <row r="2" spans="1:10" ht="121.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
+      <c r="B2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="E2" s="8">
+        <v>3</v>
+      </c>
+      <c r="F2" s="8">
         <f t="shared" ref="F2:F21" si="0">D2*E2</f>
-        <v>0</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="1:10" ht="158.4" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
+      <c r="B3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0.45</v>
+      </c>
+      <c r="E3" s="8">
+        <v>3</v>
+      </c>
+      <c r="F3" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+        <v>1.35</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" spans="1:10" ht="158.4" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
+      <c r="B4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="E4" s="8">
+        <v>2</v>
+      </c>
+      <c r="F4" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" ht="132" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
+      <c r="B5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>5</v>
+      </c>
+      <c r="F5" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" ht="118.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
+      <c r="B6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="E6" s="8">
+        <v>3</v>
+      </c>
+      <c r="F6" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" ht="158.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
+      <c r="B7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="8">
+        <v>2</v>
+      </c>
+      <c r="F7" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" ht="105.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
+      <c r="B8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="E8" s="8">
+        <v>3</v>
+      </c>
+      <c r="F8" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+        <v>2.0999999999999996</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" ht="118.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2">
+      <c r="B9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="E9" s="8">
+        <v>3</v>
+      </c>
+      <c r="F9" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+    <row r="11" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+    <row r="12" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+    <row r="13" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+    <row r="14" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2">
-        <v>0</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+    <row r="15" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2">
-        <v>0</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0</v>
-      </c>
-      <c r="F16" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+    <row r="16" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2">
-        <v>0</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0</v>
-      </c>
-      <c r="F17" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+    <row r="17" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2">
-        <v>0</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0</v>
-      </c>
-      <c r="F18" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+    <row r="18" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2">
-        <v>0</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0</v>
-      </c>
-      <c r="F19" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+    <row r="19" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2">
-        <v>0</v>
-      </c>
-      <c r="E20" s="2">
-        <v>0</v>
-      </c>
-      <c r="F20" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+    <row r="20" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2">
-        <v>0</v>
-      </c>
-      <c r="E21" s="2">
-        <v>0</v>
-      </c>
-      <c r="F21" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+    <row r="21" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
-        <v>16</v>
+    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -869,10 +991,10 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Оберіть зі спику члена команди" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
-            <xm:f>Люди!$A$1:$A$6</xm:f>
+            <xm:f>Люди!$A$1:$A$11</xm:f>
           </x14:formula1>
           <xm:sqref>J2:J21</xm:sqref>
         </x14:dataValidation>
@@ -887,43 +1009,70 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+    <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+    <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+    <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+    <row r="5" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/docs/1.Envisioning/other/Аналіз проектних ризиків.xlsx
+++ b/docs/1.Envisioning/other/Аналіз проектних ризиків.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Таїсія\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D49FBFBA-4673-472B-95AC-D6C364E28380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F2C6D8-6929-4E0E-8B7E-882C50D6AFF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="60">
   <si>
     <t>#</t>
   </si>
@@ -296,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -317,6 +317,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -539,8 +542,8 @@
   </sheetPr>
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -618,7 +621,9 @@
       <c r="I2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="8"/>
+      <c r="J2" s="8" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="3" spans="1:10" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -649,7 +654,9 @@
       <c r="I3" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="J3" s="8"/>
+      <c r="J3" s="8" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
@@ -680,7 +687,9 @@
       <c r="I4" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="J4" s="8"/>
+      <c r="J4" s="8" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="132" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
@@ -711,7 +720,9 @@
       <c r="I5" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="J5" s="8"/>
+      <c r="J5" s="8" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
@@ -742,13 +753,15 @@
       <c r="I6" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="J6" s="8"/>
+      <c r="J6" s="8" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C7" s="9" t="s">
@@ -773,7 +786,9 @@
       <c r="I7" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="J7" s="8"/>
+      <c r="J7" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
@@ -804,7 +819,9 @@
       <c r="I8" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="J8" s="8"/>
+      <c r="J8" s="8" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
@@ -835,7 +852,9 @@
       <c r="I9" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="J9" s="8"/>
+      <c r="J9" s="8" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
